--- a/doc/02_外部設計/02_機能一覧_B2.xlsx
+++ b/doc/02_外部設計/02_機能一覧_B2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B2\doc\02_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F4FBBB-B608-4073-A9BB-17F607D3E1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0015DE-7C15-4328-99DF-26E7C28AEF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1341,7 +1341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="112" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>

--- a/doc/02_外部設計/02_機能一覧_B2.xlsx
+++ b/doc/02_外部設計/02_機能一覧_B2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B2\doc\02_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0015DE-7C15-4328-99DF-26E7C28AEF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806B3C66-F05A-40A7-87E0-32C24284D022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="105">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -886,16 +886,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン画面を表示する。</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザーログアウト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -917,6 +907,18 @@
     <rPh sb="8" eb="10">
       <t>サクジョ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LogoutServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウトする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MyInfoServlet</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1341,8 +1343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="112" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2113,7 +2115,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>75</v>
@@ -2122,7 +2124,7 @@
         <v>26</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>21</v>
@@ -2212,7 +2214,7 @@
         <v>91</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>92</v>
@@ -2236,7 +2238,7 @@
         <v>93</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>94</v>
@@ -2257,16 +2259,16 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>21</v>

--- a/doc/02_外部設計/02_機能一覧_B2.xlsx
+++ b/doc/02_外部設計/02_機能一覧_B2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B2\doc\02_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806B3C66-F05A-40A7-87E0-32C24284D022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DBA9BD-1515-446E-AAD1-3B2D3CE58058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="113">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -882,10 +882,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ハンバーガーメニュー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザーログアウト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -919,6 +915,72 @@
   </si>
   <si>
     <t>MyInfoServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浅野</t>
+    <rPh sb="0" eb="2">
+      <t>アサノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>谷口</t>
+    <rPh sb="0" eb="2">
+      <t>タニグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高橋</t>
+    <rPh sb="0" eb="2">
+      <t>タカハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伊東</t>
+    <rPh sb="0" eb="2">
+      <t>イトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秋山</t>
+    <rPh sb="0" eb="2">
+      <t>アキヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伊藤</t>
+    <rPh sb="0" eb="2">
+      <t>イトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秋山/伊藤</t>
+    <rPh sb="0" eb="2">
+      <t>アキヤマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伊東/高橋</t>
+    <rPh sb="0" eb="2">
+      <t>イトウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タカハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1343,8 +1405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="112" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1393,15 +1455,19 @@
       <c r="G4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="H5" s="9">
+        <v>45457</v>
+      </c>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
@@ -1441,7 +1507,9 @@
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
@@ -1465,7 +1533,9 @@
       <c r="C9" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
@@ -1489,7 +1559,9 @@
       <c r="C10" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="E10" s="2" t="s">
         <v>23</v>
       </c>
@@ -1513,7 +1585,9 @@
       <c r="C11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="E11" s="2" t="s">
         <v>28</v>
       </c>
@@ -1537,7 +1611,9 @@
       <c r="C12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="E12" s="2" t="s">
         <v>19</v>
       </c>
@@ -1561,7 +1637,9 @@
       <c r="C13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="E13" s="2" t="s">
         <v>49</v>
       </c>
@@ -1585,7 +1663,9 @@
       <c r="C14" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="E14" s="2" t="s">
         <v>30</v>
       </c>
@@ -1609,7 +1689,9 @@
       <c r="C15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="E15" s="2" t="s">
         <v>32</v>
       </c>
@@ -1633,7 +1715,9 @@
       <c r="C16" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="E16" s="2" t="s">
         <v>46</v>
       </c>
@@ -1657,7 +1741,9 @@
       <c r="C17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="E17" s="2" t="s">
         <v>51</v>
       </c>
@@ -1681,7 +1767,9 @@
       <c r="C18" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="E18" s="2" t="s">
         <v>63</v>
       </c>
@@ -1705,7 +1793,9 @@
       <c r="C19" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="E19" s="2" t="s">
         <v>52</v>
       </c>
@@ -1729,7 +1819,9 @@
       <c r="C20" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="E20" s="2" t="s">
         <v>34</v>
       </c>
@@ -1753,7 +1845,9 @@
       <c r="C21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="E21" s="2" t="s">
         <v>65</v>
       </c>
@@ -1777,7 +1871,9 @@
       <c r="C22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="E22" s="2" t="s">
         <v>36</v>
       </c>
@@ -1801,7 +1897,9 @@
       <c r="C23" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="E23" s="2" t="s">
         <v>69</v>
       </c>
@@ -1825,7 +1923,9 @@
       <c r="C24" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="E24" s="2" t="s">
         <v>70</v>
       </c>
@@ -1849,7 +1949,9 @@
       <c r="C25" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="E25" s="2" t="s">
         <v>67</v>
       </c>
@@ -1866,14 +1968,16 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
         <v>19</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="E26" s="2" t="s">
         <v>37</v>
       </c>
@@ -1897,7 +2001,9 @@
       <c r="C27" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="E27" s="2" t="s">
         <v>87</v>
       </c>
@@ -1921,7 +2027,9 @@
       <c r="C28" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="E28" s="2" t="s">
         <v>85</v>
       </c>
@@ -1945,7 +2053,9 @@
       <c r="C29" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="E29" s="2" t="s">
         <v>39</v>
       </c>
@@ -1969,7 +2079,9 @@
       <c r="C30" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="E30" s="2" t="s">
         <v>38</v>
       </c>
@@ -1993,7 +2105,9 @@
       <c r="C31" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="E31" s="2" t="s">
         <v>96</v>
       </c>
@@ -2017,7 +2131,9 @@
       <c r="C32" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="E32" s="2" t="s">
         <v>54</v>
       </c>
@@ -2041,7 +2157,9 @@
       <c r="C33" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="E33" s="2" t="s">
         <v>55</v>
       </c>
@@ -2065,7 +2183,9 @@
       <c r="C34" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="E34" s="2" t="s">
         <v>59</v>
       </c>
@@ -2089,7 +2209,9 @@
       <c r="C35" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="E35" s="2" t="s">
         <v>60</v>
       </c>
@@ -2113,9 +2235,11 @@
       <c r="C36" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="E36" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>75</v>
@@ -2124,7 +2248,7 @@
         <v>26</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>21</v>
@@ -2137,7 +2261,9 @@
       <c r="C37" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="E37" s="2" t="s">
         <v>89</v>
       </c>
@@ -2161,7 +2287,9 @@
       <c r="C38" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="E38" s="2" t="s">
         <v>88</v>
       </c>
@@ -2185,7 +2313,9 @@
       <c r="C39" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="2"/>
+      <c r="D39" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="E39" s="2" t="s">
         <v>53</v>
       </c>
@@ -2209,12 +2339,14 @@
       <c r="C40" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="2"/>
+      <c r="D40" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="E40" s="2" t="s">
         <v>91</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>92</v>
@@ -2233,12 +2365,14 @@
       <c r="C41" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="E41" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>94</v>
@@ -2255,20 +2389,22 @@
         <v>35</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F42" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>94</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>21</v>

--- a/doc/02_外部設計/02_機能一覧_B2.xlsx
+++ b/doc/02_外部設計/02_機能一覧_B2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B2\doc\02_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DBA9BD-1515-446E-AAD1-3B2D3CE58058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AE8D58-792F-4862-96FA-C4D33A6A2C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="120">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -222,10 +222,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>HouseSelectServlet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>家ログイン</t>
     <rPh sb="0" eb="1">
       <t>イエ</t>
@@ -981,6 +977,38 @@
   </si>
   <si>
     <t>ヘッダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SignUpServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HouseJoinServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HouseRegistServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SettlementServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ReceiptServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ItemRegistServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ItemListServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TaskRegistServlet</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1405,8 +1433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:I5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1465,7 +1493,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="9">
-        <v>45457</v>
+        <v>45461</v>
       </c>
       <c r="I5" s="10"/>
     </row>
@@ -1508,7 +1536,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
@@ -1520,7 +1548,7 @@
         <v>22</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>21</v>
@@ -1531,10 +1559,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
@@ -1546,7 +1574,7 @@
         <v>25</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>21</v>
@@ -1557,10 +1585,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>23</v>
@@ -1583,22 +1611,22 @@
         <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>21</v>
@@ -1609,22 +1637,22 @@
         <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>21</v>
@@ -1635,22 +1663,22 @@
         <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>21</v>
@@ -1661,16 +1689,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>26</v>
@@ -1687,22 +1715,22 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>21</v>
@@ -1713,22 +1741,22 @@
         <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>21</v>
@@ -1739,22 +1767,22 @@
         <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>21</v>
@@ -1765,22 +1793,22 @@
         <v>11</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>21</v>
@@ -1791,22 +1819,22 @@
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>21</v>
@@ -1817,22 +1845,22 @@
         <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>21</v>
@@ -1843,22 +1871,22 @@
         <v>14</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>21</v>
@@ -1869,22 +1897,22 @@
         <v>15</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F22" s="2" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>21</v>
@@ -1895,22 +1923,22 @@
         <v>16</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>21</v>
@@ -1921,22 +1949,22 @@
         <v>17</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>21</v>
@@ -1947,22 +1975,22 @@
         <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>21</v>
@@ -1973,22 +2001,22 @@
         <v>19</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>21</v>
@@ -1999,22 +2027,22 @@
         <v>20</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>21</v>
@@ -2025,22 +2053,22 @@
         <v>21</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>21</v>
@@ -2051,22 +2079,22 @@
         <v>22</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>21</v>
@@ -2077,22 +2105,22 @@
         <v>23</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>21</v>
@@ -2103,22 +2131,22 @@
         <v>24</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>21</v>
@@ -2129,22 +2157,22 @@
         <v>25</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>21</v>
@@ -2155,22 +2183,22 @@
         <v>26</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>21</v>
@@ -2181,22 +2209,22 @@
         <v>27</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>21</v>
@@ -2207,22 +2235,22 @@
         <v>28</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>21</v>
@@ -2233,22 +2261,22 @@
         <v>29</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>21</v>
@@ -2259,22 +2287,22 @@
         <v>30</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>21</v>
@@ -2285,22 +2313,22 @@
         <v>31</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>21</v>
@@ -2311,22 +2339,22 @@
         <v>32</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>21</v>
@@ -2337,22 +2365,22 @@
         <v>33</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="H40" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>21</v>
@@ -2363,22 +2391,22 @@
         <v>34</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G41" s="2" t="s">
+      <c r="H41" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>21</v>
@@ -2389,22 +2417,22 @@
         <v>35</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F42" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H42" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>21</v>

--- a/doc/02_外部設計/02_機能一覧_B2.xlsx
+++ b/doc/02_外部設計/02_機能一覧_B2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B2\doc\02_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AE8D58-792F-4862-96FA-C4D33A6A2C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AF62FD-15B8-4768-81C0-F5AEB2A7425D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12852" yWindow="0" windowWidth="10104" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="126">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -966,9 +966,58 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>伊東/高橋</t>
-    <rPh sb="0" eb="2">
-      <t>イトウ</t>
+    <t>ヘッダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SignUpServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HouseJoinServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HouseRegistServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SettlementServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ReceiptServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ItemRegistServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ItemListServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TaskRegistServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浅野夢貴</t>
+    <rPh sb="0" eb="2">
+      <t>アサノ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ユメ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浅野/高橋</t>
+    <rPh sb="0" eb="2">
+      <t>アサノ</t>
     </rPh>
     <rPh sb="3" eb="5">
       <t>タカハシ</t>
@@ -976,39 +1025,53 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ヘッダー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SignUpServlet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HouseJoinServlet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HouseRegistServlet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SettlementServlet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ReceiptServlet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ItemRegistServlet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ItemListServlet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TaskRegistServlet</t>
+    <t>谷口/秋山</t>
+    <rPh sb="0" eb="2">
+      <t>タニグチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アキヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高橋/谷口</t>
+    <rPh sb="0" eb="2">
+      <t>タカハシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タニグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伊東/谷口</t>
+    <rPh sb="0" eb="2">
+      <t>イトウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タニグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高橋/秋山</t>
+    <rPh sb="0" eb="2">
+      <t>タカハシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アキヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秋山/浅野</t>
+    <rPh sb="0" eb="2">
+      <t>アキヤマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アサノ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1431,10 +1494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I44"/>
+  <dimension ref="B2:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="C18" zoomScale="111" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1449,7 +1512,7 @@
     <col min="8" max="8" width="33.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1464,7 +1527,7 @@
       </c>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1479,7 +1542,7 @@
       </c>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="G4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1487,8 +1550,15 @@
         <v>17</v>
       </c>
       <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1496,13 +1566,20 @@
         <v>45461</v>
       </c>
       <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="J5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="9">
+        <v>45470</v>
+      </c>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="2:12" ht="21" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1528,7 +1605,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>1</v>
       </c>
@@ -1536,7 +1613,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>19</v>
@@ -1554,7 +1631,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1562,7 +1639,7 @@
         <v>76</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
@@ -1580,7 +1657,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -1588,7 +1665,7 @@
         <v>76</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>23</v>
@@ -1606,7 +1683,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -1614,13 +1691,13 @@
         <v>76</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>26</v>
@@ -1632,7 +1709,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>5</v>
       </c>
@@ -1640,13 +1717,13 @@
         <v>77</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>25</v>
@@ -1658,7 +1735,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12" ht="39.6" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <v>6</v>
       </c>
@@ -1666,13 +1743,13 @@
         <v>77</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>26</v>
@@ -1684,7 +1761,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12" ht="26.4" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <v>7</v>
       </c>
@@ -1692,13 +1769,13 @@
         <v>77</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>26</v>
@@ -1710,7 +1787,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
         <v>8</v>
       </c>
@@ -1718,7 +1795,7 @@
         <v>30</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>31</v>
@@ -1736,7 +1813,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
         <v>9</v>
       </c>
@@ -1744,13 +1821,13 @@
         <v>78</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>26</v>
@@ -1770,7 +1847,7 @@
         <v>78</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>50</v>
@@ -1796,13 +1873,13 @@
         <v>78</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>26</v>
@@ -1822,7 +1899,7 @@
         <v>79</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>51</v>
@@ -1848,7 +1925,7 @@
         <v>80</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>33</v>
@@ -1874,7 +1951,7 @@
         <v>34</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>64</v>
@@ -1900,13 +1977,13 @@
         <v>34</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>26</v>
@@ -1978,7 +2055,7 @@
         <v>82</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>66</v>
@@ -2004,7 +2081,7 @@
         <v>82</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>36</v>
@@ -2030,7 +2107,7 @@
         <v>83</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>86</v>
@@ -2056,13 +2133,13 @@
         <v>83</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>26</v>
@@ -2082,13 +2159,13 @@
         <v>83</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>26</v>
@@ -2108,13 +2185,13 @@
         <v>83</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>26</v>
@@ -2134,13 +2211,13 @@
         <v>83</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>26</v>
@@ -2160,7 +2237,7 @@
         <v>39</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>53</v>
@@ -2186,7 +2263,7 @@
         <v>39</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>54</v>
@@ -2212,7 +2289,7 @@
         <v>40</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>58</v>
@@ -2238,7 +2315,7 @@
         <v>40</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>59</v>
@@ -2264,7 +2341,7 @@
         <v>40</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>98</v>
@@ -2417,10 +2494,10 @@
         <v>35</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>97</v>
@@ -2463,11 +2540,13 @@
       <c r="I44" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:I5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
